--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>0.07975464681371225</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -437,26 +440,29 @@
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.1634715480938964</v>
+        <v>-4.700509864312973</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-3.017636378339217</v>
       </c>
       <c r="D4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E4">
-        <v>-2.503026633163052</v>
+        <v>-3.229247082222797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -468,29 +474,29 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.6888449045935552</v>
+        <v>-0.01655958389530365</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C6">
-        <v>-1.31761954538927</v>
+        <v>0.003352386816724007</v>
       </c>
       <c r="D6">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E6">
-        <v>0.1692474513351083</v>
+        <v>-1.461031976610316</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -502,29 +508,29 @@
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>3.609425886625339</v>
+        <v>3.579142225970444</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C8">
-        <v>2.771597318554297</v>
+        <v>3.925837669383347</v>
       </c>
       <c r="D8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E8">
-        <v>3.628343599698969</v>
+        <v>2.641604203902781</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -536,29 +542,29 @@
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.169339034160743</v>
+        <v>-0.289184878867832</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C10">
-        <v>1.799362536952542</v>
+        <v>0.2381541440396262</v>
       </c>
       <c r="D10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E10">
-        <v>0.6019339353565023</v>
+        <v>1.60268309892857</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +576,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.818619766830312</v>
+        <v>5.963492031746176</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>2.123182427147152</v>
+        <v>4.993892964711621</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>4.990675812925582</v>
+        <v>2.260118192030736</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +610,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>6.33415002955966</v>
+        <v>7.523777575896196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>7.317297369612819</v>
+        <v>6.711795724673664</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.969804644981291</v>
+        <v>6.409878804372982</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +644,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.29595620404217</v>
+        <v>2.532215190177589</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>4.260319658857736</v>
+        <v>0.5121603413743347</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>0.5177688839717476</v>
+        <v>3.290935868252554</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +678,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.191891383640931</v>
+        <v>2.051185924063259</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>-0.05262415810141086</v>
+        <v>1.745565778643887</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>2.170064026854179</v>
+        <v>0.7985845180024986</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +712,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.283682996337033</v>
+        <v>0.4575538530338541</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>1.459778471779982</v>
+        <v>2.687500891103922</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>2.91162218972072</v>
+        <v>1.922191950024699</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +746,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>3.141368102642828</v>
+        <v>2.600569166164624</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>3.002208343813528</v>
+        <v>3.339205815020496</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>3.609713327497399</v>
+        <v>2.646788941483735</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.737230524212798</v>
+        <v>3.654655474034474</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.011320934469008</v>
+        <v>3.068403604789749</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.951369010811856</v>
+        <v>4.036117574265741</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.814393891325029</v>
+        <v>3.628675245064317</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +814,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.151661456848687</v>
+        <v>3.605726003451304</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>4.020433260014977</v>
+        <v>3.813466308501412</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>3.414265482440926</v>
+        <v>3.884173085820986</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.498193990879561</v>
+        <v>3.712036718632117</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>2.473437657144562</v>
+        <v>3.908921577463587</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.473437336652374</v>
+        <v>3.551357200054261</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.371660794972863</v>
+        <v>3.524277826276134</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +882,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.492295186821214</v>
+        <v>3.490656491795074</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.53224976671227</v>
+        <v>2.732790977059629</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>2.15810425970917</v>
+        <v>3.412957258051663</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.068108937069524</v>
+        <v>2.849400388885992</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>1.339443560148146</v>
+        <v>3.535456592693387</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.6257981900360754</v>
+        <v>-0.985458715495402</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>0.02822784966425296</v>
+        <v>-3.099271113627677</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +950,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-1.158677136920438</v>
+        <v>-2.347097924577757</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-0.985458715495402</v>
+        <v>-5.285337128797329</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>-0.5625294724799446</v>
+        <v>-2.69436300797079</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-3.230460817064207</v>
+        <v>-4.741003096464214</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.74442712952825</v>
+        <v>-2.156795995006056</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-4.251052026148628</v>
+        <v>-4.365687260408224</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.656212438505845</v>
+        <v>-0.9191921099315992</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +1018,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>2.982321066053917</v>
+        <v>-0.1803381976702711</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>-4.365687260408224</v>
+        <v>1.871837441670499</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>3.094432991283247</v>
+        <v>-0.8573220257725445</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.41788144952242</v>
+        <v>1.194925448553708</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.518635225266698</v>
+        <v>-2.068675356622807</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.495530390347999</v>
+        <v>1.27347919322387</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.320052410719797</v>
+        <v>-2.137023292796481</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1086,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.359183478082948</v>
+        <v>-1.152671696465724</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>1.27347919322387</v>
+        <v>-0.507642354784088</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-1.770033892097977</v>
+        <v>0.07646803116447831</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6902932880100465</v>
+        <v>-1.084365158506884</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.32542493162331</v>
+        <v>-1.089896342664354</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.396072416567873</v>
+        <v>-1.339436245206127</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-3.455348590137297</v>
+        <v>-1.277727682704721</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1154,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.765539321179955</v>
+        <v>-2.785556326028149</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-1.339436245206127</v>
+        <v>-2.87408779878463</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>-3.192473321073452</v>
+        <v>-1.155307395925487</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.92816293250372</v>
+        <v>-3.40787540386569</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.6927922959721888</v>
+        <v>-2.191935020614488</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-3.39661216620909</v>
+        <v>-3.451527003230626</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.3369494081789437</v>
+        <v>-2.998472503487815</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1222,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-1.123002263566031</v>
+        <v>-2.452009576682213</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-3.451527003230626</v>
+        <v>-2.164008261629446</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>-1.510559672577028</v>
+        <v>-2.337170009804157</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.657630308694935</v>
+        <v>-1.853660925652212</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.4486578513538175</v>
+        <v>-1.878672029998096</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.67392582565723</v>
+        <v>-1.75044229618867</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.204607811081226</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>-1.75044229618867</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.7295772846297677</v>
+        <v>-1.760724207457021</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>4.930115226412335</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.07975464681371225</v>
+        <v>1.402909115503936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>2.319409367208825</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-4.700509864312973</v>
+        <v>5.080273296954374</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.457587285166628</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-3.017636378339217</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-3.229247082222797</v>
+        <v>2.807231216534278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.31761954538927</v>
+        <v>-3.942037578692481</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-0.01655958389530365</v>
+        <v>-1.648748515828502</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.9140166223623569</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.003352386816724007</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>-1.461031976610316</v>
+        <v>1.821983295885121</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>2.771597318554297</v>
+        <v>-2.839753013810475</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>3.579142225970444</v>
+        <v>-1.632723506456935</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>2.585942866987878</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>3.925837669383347</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>2.641604203902781</v>
+        <v>2.722861752007866</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.799362536952542</v>
+        <v>4.960109259035406</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>-0.289184878867832</v>
+        <v>4.506881698240095</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>4.253963781362402</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>0.2381541440396262</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.60268309892857</v>
+        <v>2.878414118480799</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>2.123182427147152</v>
+        <v>2.134646894829806</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>5.963492031746176</v>
+        <v>2.531943146540772</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>1.752870900283909</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>4.993892964711621</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.260118192030736</v>
+        <v>3.144721336271927</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>7.317297369612819</v>
+        <v>-2.700325749999488</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>7.523777575896196</v>
+        <v>-0.3858735870725938</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>-1.479696720105139</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>6.711795724673664</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>6.409878804372982</v>
+        <v>2.238623952069552</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>4.260319658857736</v>
+        <v>5.469647210234996</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>2.532215190177589</v>
+        <v>3.061326532789543</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.900127535411246</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>0.5121603413743347</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.290935868252554</v>
+        <v>-0.6155071485167585</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>-0.05262415810141086</v>
+        <v>0.950153436409007</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.051185924063259</v>
+        <v>2.074800935750787</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>0.03947433952959933</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>1.745565778643887</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>0.7985845180024986</v>
+        <v>1.182212550358064</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.459778471779982</v>
+        <v>3.458696398997052</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>0.4575538530338541</v>
+        <v>2.610227683091337</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.192778679161944</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>2.687500891103922</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.922191950024699</v>
+        <v>-0.5835597102573198</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>3.002208343813528</v>
+        <v>2.772413308959698</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.600569166164624</v>
+        <v>2.755099409670958</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>3.40836448860673</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>3.339205815020496</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.646788941483735</v>
+        <v>2.34299484087257</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>3.654655474034474</v>
+        <v>1.376958470962375</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>3.068403604789749</v>
+        <v>2.554746761760573</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>4.036117574265741</v>
+        <v>3.145819842658448</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>3.628675245064317</v>
+        <v>3.875106770584158</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>4.020433260014977</v>
+        <v>2.594480907596441</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.605726003451304</v>
+        <v>2.978856953395592</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>2.799070570134488</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.813466308501412</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>3.884173085820986</v>
+        <v>3.056075254339996</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.712036718632117</v>
+        <v>3.665688413913726</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.908921577463587</v>
+        <v>3.126710782028086</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.551357200054261</v>
+        <v>4.520465362328063</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.524277826276134</v>
+        <v>4.124307769579505</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.53224976671227</v>
+        <v>4.143226503463837</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.490656491795074</v>
+        <v>2.872814227731846</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>4.195393191694419</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>2.732790977059629</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>3.412957258051663</v>
+        <v>2.652948310315506</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.849400388885992</v>
+        <v>2.017172445889925</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>3.535456592693387</v>
+        <v>2.549404806734712</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.985458715495402</v>
+        <v>4.479055418855871</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-3.099271113627677</v>
+        <v>4.888255652935936</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-0.985458715495402</v>
+        <v>2.133862376612439</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.347097924577757</v>
+        <v>0.273062749117492</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>1.666553973046048</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-5.285337128797329</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-2.69436300797079</v>
+        <v>-0.9999522486825452</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-4.741003096464214</v>
+        <v>-2.991914460776179</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-2.156795995006056</v>
+        <v>-0.7897024150736676</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-4.365687260408224</v>
+        <v>2.922623512367206</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-0.9191921099315992</v>
+        <v>2.761298099516418</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-4.365687260408224</v>
+        <v>1.773820722495745</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>-0.1803381976702711</v>
+        <v>1.707328096006822</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>1.879266440112803</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>1.871837441670499</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>-0.8573220257725445</v>
+        <v>-0.1343977949472275</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.194925448553708</v>
+        <v>-0.05874878927536464</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-2.068675356622807</v>
+        <v>1.647170385765651</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.27347919322387</v>
+        <v>-0.2939924376199055</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>-2.137023292796481</v>
+        <v>1.109922826784815</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.27347919322387</v>
+        <v>-2.404913754290983</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.152671696465724</v>
+        <v>-2.467583266971451</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>-2.620683231370946</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-0.507642354784088</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>0.07646803116447831</v>
+        <v>-2.83913279674276</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.084365158506884</v>
+        <v>-3.938880009788048</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-1.089896342664354</v>
+        <v>-0.6223811084860253</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.339436245206127</v>
+        <v>-2.429883624035745</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-1.277727682704721</v>
+        <v>-0.8739913853863412</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-1.339436245206127</v>
+        <v>-2.901570548279864</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-2.785556326028149</v>
+        <v>-1.444783760697688</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-3.036556262700274</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-2.87408779878463</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>-1.155307395925487</v>
+        <v>-1.803491225663911</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.40787540386569</v>
+        <v>-2.786207191231715</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-2.191935020614488</v>
+        <v>-2.423357831382655</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-3.451527003230626</v>
+        <v>-1.060428249734879</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-2.998472503487815</v>
+        <v>-1.285332554730334</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-3.451527003230626</v>
+        <v>-2.859191689251428</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-2.452009576682213</v>
+        <v>-3.927752965551978</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-2.953443685011514</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>-2.164008261629446</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>-2.337170009804157</v>
+        <v>-2.75492543068685</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-1.853660925652212</v>
+        <v>-0.8799002368073738</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-1.878672029998096</v>
+        <v>-2.26429946512674</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-1.75044229618867</v>
+        <v>0.1432745330888219</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-1.760724207457021</v>
+        <v>-0.484131235569496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>-1.131442475565558</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>-2.567308877837815</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>2.133862376612439</v>
+        <v>2.407619904801606</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.273062749117492</v>
+        <v>1.314298916225654</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-0.9999522486825452</v>
+        <v>-1.376301649685419</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-2.991914460776179</v>
+        <v>0.3994749385743512</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-0.7897024150736676</v>
+        <v>1.894543511868663</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>2.922623512367206</v>
+        <v>2.944732456202548</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.761298099516418</v>
+        <v>2.952888094518125</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.773820722495745</v>
+        <v>1.614781041096625</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.707328096006822</v>
+        <v>1.616170623326796</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.1343977949472275</v>
+        <v>-0.5015683214423805</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-0.05874878927536464</v>
+        <v>-1.647049671756329</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>1.647170385765651</v>
+        <v>0.5113886578309135</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>-0.2939924376199055</v>
+        <v>0.7712591263790092</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>1.109922826784815</v>
+        <v>2.690914239437681</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-2.404913754290983</v>
+        <v>-2.3670536889845</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-2.467583266971451</v>
+        <v>-1.23388274936691</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-2.83913279674276</v>
+        <v>-3.531225750971478</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-3.938880009788048</v>
+        <v>-4.823846530890464</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-0.6223811084860253</v>
+        <v>-1.599355436867833</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.429883624035745</v>
+        <v>-1.733020510269734</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.8739913853863412</v>
+        <v>1.276886232005281</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.901570548279864</v>
+        <v>-2.690210378056679</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-1.444783760697688</v>
+        <v>-0.5080092691693849</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.803491225663911</v>
+        <v>-0.6127369048507636</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.786207191231715</v>
+        <v>-3.632744220111905</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-2.423357831382655</v>
+        <v>-3.888017676031608</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.060428249734879</v>
+        <v>-0.5744163079740239</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-1.285332554730334</v>
+        <v>-0.6956477387308868</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.859191689251428</v>
+        <v>-2.862797582711474</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-3.927752965551978</v>
+        <v>-2.931248208044457</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>-2.75492543068685</v>
+        <v>-3.846731480588816</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>-0.8799002368073738</v>
+        <v>-1.265401163425972</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-2.26429946512674</v>
+        <v>-2.649371313321569</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.1432745330888219</v>
+        <v>-0.1892239049850031</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-0.484131235569496</v>
+        <v>-1.765469626114691</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-1.131442475565558</v>
+        <v>-1.201318493118486</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-2.567308877837815</v>
+        <v>-2.375407956079445</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>4.930115226412335</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>1.402909115503936</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>2.319409367208825</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>5.080273296954374</v>
+        <v>5.080273296954396</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.457587285166628</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>2.807231216534278</v>
+        <v>2.807231216534301</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +462,13 @@
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-3.942037578692481</v>
+        <v>-3.942037578692492</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-1.648748515828502</v>
+        <v>-1.648748515828491</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +479,13 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.9140166223623569</v>
+        <v>-0.9140166223623458</v>
       </c>
       <c r="D6">
         <v>2010</v>
       </c>
       <c r="E6">
-        <v>1.821983295885121</v>
+        <v>1.821983295885099</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +496,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>-2.839753013810475</v>
+        <v>-2.839753013810498</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>-1.632723506456935</v>
+        <v>-1.632723506456923</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -542,7 +530,7 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>4.960109259035406</v>
+        <v>4.960109259035428</v>
       </c>
       <c r="D9">
         <v>2012</v>
@@ -610,13 +598,13 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-2.700325749999488</v>
+        <v>-2.700325749999499</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>-0.3858735870725938</v>
+        <v>-0.3858735870725494</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,7 +615,7 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>-1.479696720105139</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="D14">
         <v>2014</v>
@@ -644,13 +632,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.469647210234996</v>
+        <v>5.469647210234974</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>3.061326532789543</v>
+        <v>3.061326532789521</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>-0.6155071485167585</v>
+        <v>-0.6155071485167807</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -712,13 +700,13 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>3.458696398997052</v>
+        <v>3.458696398997096</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>2.610227683091337</v>
+        <v>2.610227683091315</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +717,13 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.192778679161944</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="D20">
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>-0.5835597102573198</v>
+        <v>-0.5835597102573087</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,7 +734,7 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>2.772413308959698</v>
+        <v>2.77241330895972</v>
       </c>
       <c r="D21">
         <v>2018</v>
@@ -763,7 +751,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>3.40836448860673</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -780,7 +768,7 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>1.376958470962375</v>
+        <v>1.376958470962353</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -797,7 +785,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.145819842658448</v>
+        <v>3.14581984265847</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -814,13 +802,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.594480907596441</v>
+        <v>2.594480907596486</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>2.978856953395592</v>
+        <v>2.97885695339557</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>3.056075254339996</v>
+        <v>3.056075254340018</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>3.665688413913726</v>
+        <v>3.665688413913704</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.126710782028086</v>
+        <v>3.126710782028064</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -871,7 +859,7 @@
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>4.124307769579505</v>
+        <v>4.124307769579483</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,7 +870,7 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>4.143226503463837</v>
+        <v>4.143226503463815</v>
       </c>
       <c r="D29">
         <v>2020</v>
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.888255652935936</v>
+        <v>4.888255652935958</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>1.666553973046048</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-1.376301649685419</v>
+        <v>-1.376301649685407</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.3994749385743512</v>
+        <v>0.399474938574329</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.894543511868663</v>
+        <v>1.894543511868685</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1007,7 +995,7 @@
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>2.952888094518125</v>
+        <v>2.95288809451808</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1006,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>1.614781041096625</v>
+        <v>1.61478104109658</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>1.616170623326796</v>
+        <v>1.61617062332684</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1023,13 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>1.879266440112803</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="D38">
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>-0.5015683214423805</v>
+        <v>-0.5015683214423916</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,7 +1040,7 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>-1.647049671756329</v>
+        <v>-1.647049671756318</v>
       </c>
       <c r="D39">
         <v>2023</v>
@@ -1086,7 +1074,7 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>-2.3670536889845</v>
+        <v>-2.367053688984511</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1103,13 +1091,13 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>-2.620683231370946</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="D42">
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-3.531225750971478</v>
+        <v>-3.531225750971467</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,7 +1108,7 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-4.823846530890464</v>
+        <v>-4.823846530890474</v>
       </c>
       <c r="D43">
         <v>2024</v>
@@ -1154,13 +1142,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.690210378056679</v>
+        <v>-2.690210378056657</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.5080092691693849</v>
+        <v>-0.5080092691694071</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,7 +1159,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-3.036556262700274</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1188,13 +1176,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-3.632744220111905</v>
+        <v>-3.632744220111894</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-3.888017676031608</v>
+        <v>-3.88801767603163</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1193,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.5744163079740239</v>
+        <v>-0.5744163079740128</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.6956477387308868</v>
+        <v>-0.6956477387308979</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1210,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.862797582711474</v>
+        <v>-2.862797582711463</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-2.931248208044457</v>
+        <v>-2.931248208044468</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1262,7 +1250,7 @@
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>-2.649371313321569</v>
+        <v>-2.64937131332158</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,7 +1261,7 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>-0.1892239049850031</v>
+        <v>-0.1892239049850142</v>
       </c>
       <c r="D52">
         <v>2026</v>
@@ -1290,13 +1278,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>-1.201318493118486</v>
+        <v>-1.201318493118475</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>-2.375407956079445</v>
+        <v>-2.375407956079478</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_CONSTR_yoy_AVERAGE_10_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>-2.375407956079478</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>-0.7200474048664085</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>-2.181280391105744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
